--- a/AVC_Charts/AVC_CmdAndtlm_v2.xlsx
+++ b/AVC_Charts/AVC_CmdAndtlm_v2.xlsx
@@ -162,9 +162,6 @@
     <t>Current status of 'Start button' and each bumper switch</t>
   </si>
   <si>
-    <t xml:space="preserve">bitfield  </t>
-  </si>
-  <si>
     <t>Units, etc.</t>
   </si>
   <si>
@@ -410,6 +407,9 @@
   </si>
   <si>
     <t>degrees</t>
+  </si>
+  <si>
+    <t>bitfield  (start button is bit 0)</t>
   </si>
 </sst>
 </file>
@@ -1049,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,7 +1058,7 @@
     <col min="1" max="1" width="40.42578125" style="3" customWidth="1"/>
     <col min="2" max="2" width="53.42578125" style="4" customWidth="1"/>
     <col min="3" max="3" width="32" style="4" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" style="4" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" style="4" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" style="28" customWidth="1"/>
@@ -1067,7 +1067,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>40</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G1" s="24"/>
       <c r="H1" s="19"/>
@@ -1099,29 +1099,29 @@
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E2" s="23">
         <v>0</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I2" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="K2" s="15" t="s">
         <v>63</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>64</v>
       </c>
       <c r="L2" s="11"/>
     </row>
@@ -1142,25 +1142,25 @@
         <v>0</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G3" s="26"/>
       <c r="H3" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>1</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G4" s="27"/>
       <c r="H4" s="12"/>
@@ -1185,7 +1185,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -1197,12 +1197,12 @@
         <v>0</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>12</v>
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1225,7 +1225,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>15</v>
@@ -1237,7 +1237,7 @@
         <v>17</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1245,7 +1245,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>15</v>
@@ -1257,21 +1257,21 @@
         <v>20</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="E9" s="23">
         <v>0</v>
@@ -1282,7 +1282,7 @@
         <v>31</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>32</v>
@@ -1294,38 +1294,38 @@
         <v>0</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="23">
+        <v>0</v>
+      </c>
+      <c r="E11" s="23">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0</v>
-      </c>
-      <c r="D11" s="23">
-        <v>0</v>
-      </c>
-      <c r="E11" s="23">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="23">
         <v>0</v>
@@ -1334,47 +1334,47 @@
         <v>0</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="23">
+        <v>0</v>
+      </c>
+      <c r="E13" s="23">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D13" s="23">
-        <v>0</v>
-      </c>
-      <c r="E13" s="23">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="23">
+        <v>0</v>
+      </c>
+      <c r="E14" s="23">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="D14" s="23">
-        <v>0</v>
-      </c>
-      <c r="E14" s="23">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1385,10 +1385,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>35</v>
@@ -1400,10 +1400,10 @@
         <v>36</v>
       </c>
       <c r="G16" s="30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1411,7 +1411,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D17" s="23">
         <v>1</v>
@@ -1424,7 +1424,7 @@
         <v>4</v>
       </c>
       <c r="G17" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H17" s="4">
         <v>0</v>
@@ -1458,7 +1458,7 @@
     </row>
     <row r="19" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>4</v>
@@ -1484,10 +1484,10 @@
     <row r="20" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D20" s="23">
         <v>1</v>
@@ -1558,10 +1558,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D23" s="23">
         <v>1</v>
@@ -1583,10 +1583,10 @@
     </row>
     <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D24" s="23">
         <v>1</v>
@@ -1608,10 +1608,10 @@
     </row>
     <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D25" s="23">
         <v>1</v>
@@ -1633,10 +1633,10 @@
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D26" s="23">
         <v>1</v>
@@ -1658,10 +1658,10 @@
     </row>
     <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D27" s="23">
         <v>1</v>
@@ -1686,7 +1686,7 @@
         <v>47</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="D28" s="23">
         <v>1</v>
@@ -1733,10 +1733,10 @@
     </row>
     <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="D30" s="23">
         <v>1</v>
@@ -1758,10 +1758,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D31" s="23">
         <v>1</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>46</v>
@@ -1808,7 +1808,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>46</v>
@@ -1833,10 +1833,10 @@
     </row>
     <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="D34" s="23">
         <v>1</v>
@@ -1858,10 +1858,10 @@
     </row>
     <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D35" s="23">
         <v>1</v>
@@ -1883,7 +1883,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>43</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D37" s="23">
         <v>3</v>
@@ -1921,10 +1921,10 @@
         <v>6</v>
       </c>
       <c r="G37" s="32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1987,32 +1987,32 @@
     </row>
     <row r="50" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G50" s="31"/>
     </row>
     <row r="51" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
